--- a/Assignment/Module 3/Oragehrm Testcase & HLR.xlsx
+++ b/Assignment/Module 3/Oragehrm Testcase & HLR.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Software Testing\Assignment\Module 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81E6FF1-8DBE-4C6B-B7FD-0990A4207317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3273147B-B987-46DE-BC61-53D16B7D133A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{DA3C281A-3326-487F-99D4-633AE7041475}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DA3C281A-3326-487F-99D4-633AE7041475}"/>
   </bookViews>
   <sheets>
-    <sheet name="Scenario" sheetId="2" r:id="rId1"/>
-    <sheet name="Test-case1" sheetId="5" r:id="rId2"/>
-    <sheet name="hlr2" sheetId="6" r:id="rId3"/>
+    <sheet name="Test-case1" sheetId="5" r:id="rId1"/>
+    <sheet name="hlr2" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="941">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1645" uniqueCount="938">
   <si>
     <t>Function Name</t>
   </si>
@@ -45,15 +44,6 @@
   </si>
   <si>
     <t>Description</t>
-  </si>
-  <si>
-    <t>Sr No</t>
-  </si>
-  <si>
-    <t>Positive</t>
-  </si>
-  <si>
-    <t>Negative</t>
   </si>
   <si>
     <t>Test-Case ID</t>
@@ -3595,42 +3585,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0AECC96-A4D3-479B-8F67-5C9FE96EEC6A}">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="31.81640625" customWidth="1"/>
-    <col min="3" max="3" width="34.81640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7894F294-8450-4C47-8526-2EED80D709C5}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:S196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A192" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A194" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <selection activeCell="O196" sqref="O196"/>
     </sheetView>
   </sheetViews>
@@ -3647,31 +3606,31 @@
   <sheetData>
     <row r="1" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
@@ -3682,25 +3641,25 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="72.5" x14ac:dyDescent="0.35">
@@ -3711,25 +3670,25 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="87" x14ac:dyDescent="0.35">
@@ -3740,25 +3699,25 @@
         <v>2.1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="87" x14ac:dyDescent="0.35">
@@ -3769,25 +3728,25 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
@@ -3798,25 +3757,25 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="72.5" x14ac:dyDescent="0.35">
@@ -3827,25 +3786,25 @@
         <v>2.4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="58" x14ac:dyDescent="0.35">
@@ -3856,25 +3815,25 @@
         <v>2.5</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="29" x14ac:dyDescent="0.35">
@@ -3885,25 +3844,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="H9" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -3923,25 +3882,25 @@
         <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="H10" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -3961,25 +3920,25 @@
         <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -3999,25 +3958,25 @@
         <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -4037,25 +3996,25 @@
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -4075,25 +4034,25 @@
         <v>8</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -4113,25 +4072,25 @@
         <v>8.1</v>
       </c>
       <c r="C15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="5" t="s">
+      <c r="H15" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="I15" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -4151,25 +4110,25 @@
         <v>8.1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -4189,25 +4148,25 @@
         <v>9</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -4227,25 +4186,25 @@
         <v>9.1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -4262,28 +4221,28 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="H19" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -4300,28 +4259,28 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="H20" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>79</v>
-      </c>
       <c r="I20" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -4338,28 +4297,28 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="H21" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -4376,28 +4335,28 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="H22" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -4414,28 +4373,28 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C23" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="H23" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>91</v>
-      </c>
       <c r="I23" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
@@ -4452,28 +4411,28 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C24" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G24" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" s="5" t="s">
+      <c r="H24" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="F24" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>96</v>
-      </c>
       <c r="I24" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -4490,28 +4449,28 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="H25" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
@@ -4531,25 +4490,25 @@
         <v>10</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="H26" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -4569,25 +4528,25 @@
         <v>11</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
@@ -4607,25 +4566,25 @@
         <v>12</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
@@ -4645,25 +4604,25 @@
         <v>12.1</v>
       </c>
       <c r="C29" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H29" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>115</v>
-      </c>
       <c r="I29" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -4683,25 +4642,25 @@
         <v>12.2</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -4718,28 +4677,28 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
@@ -4756,28 +4715,28 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E32" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="H32" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F32" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>141</v>
-      </c>
       <c r="I32" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
@@ -4794,28 +4753,28 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -4832,28 +4791,28 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -4870,28 +4829,28 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E35" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H35" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="I35" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -4908,28 +4867,28 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -4946,28 +4905,28 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
@@ -4984,28 +4943,28 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -5022,28 +4981,28 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -5063,25 +5022,25 @@
         <v>12.3</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
@@ -5098,28 +5057,28 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G41" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>165</v>
-      </c>
       <c r="H41" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -5136,28 +5095,28 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -5174,28 +5133,28 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -5212,28 +5171,28 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="D44" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -5250,28 +5209,28 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="G45" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C45" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>176</v>
-      </c>
       <c r="H45" s="5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -5291,25 +5250,25 @@
         <v>12.4</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -5326,28 +5285,28 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="H47" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -5364,28 +5323,28 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -5402,28 +5361,28 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -5440,28 +5399,28 @@
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E50" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="G50" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="F50" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>207</v>
-      </c>
       <c r="H50" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
@@ -5478,28 +5437,28 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -5516,28 +5475,28 @@
         <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
@@ -5554,28 +5513,28 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
@@ -5595,25 +5554,25 @@
         <v>12.5</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
@@ -5630,28 +5589,28 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>218</v>
-      </c>
       <c r="G55" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
@@ -5668,28 +5627,28 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="F56" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>236</v>
-      </c>
       <c r="G56" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
@@ -5706,28 +5665,28 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F57" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="G57" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>242</v>
-      </c>
       <c r="H57" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
@@ -5744,28 +5703,28 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="F58" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="G58" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>247</v>
-      </c>
       <c r="H58" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
@@ -5782,28 +5741,28 @@
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C59" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="D59" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E59" s="5" t="s">
+      <c r="F59" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="H59" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="F59" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="H59" s="5" t="s">
-        <v>251</v>
-      </c>
       <c r="I59" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
@@ -5823,25 +5782,25 @@
         <v>12.6</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
@@ -5858,28 +5817,28 @@
         <v>60</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
@@ -5896,28 +5855,28 @@
         <v>61</v>
       </c>
       <c r="B62" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F62" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="G62" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="H62" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="D62" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="G62" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="H62" s="5" t="s">
-        <v>259</v>
-      </c>
       <c r="I62" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
@@ -5937,25 +5896,25 @@
         <v>12.7</v>
       </c>
       <c r="C63" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F63" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>268</v>
-      </c>
       <c r="G63" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
@@ -5997,25 +5956,25 @@
         <v>13</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
@@ -6035,25 +5994,25 @@
         <v>13.1</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
@@ -6070,28 +6029,28 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G67" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>398</v>
-      </c>
       <c r="H67" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
@@ -6108,28 +6067,28 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K68" s="5"/>
       <c r="L68" s="5"/>
@@ -6146,28 +6105,28 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E69" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>445</v>
-      </c>
       <c r="F69" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K69" s="5"/>
       <c r="L69" s="5"/>
@@ -6184,28 +6143,28 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K70" s="5"/>
       <c r="L70" s="5"/>
@@ -6222,28 +6181,28 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K71" s="5"/>
       <c r="L71" s="5"/>
@@ -6260,28 +6219,28 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E72" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="F72" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="F72" s="1" t="s">
-        <v>464</v>
-      </c>
       <c r="G72" s="1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K72" s="5"/>
       <c r="L72" s="5"/>
@@ -6298,28 +6257,28 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K73" s="5"/>
       <c r="L73" s="5"/>
@@ -6336,28 +6295,28 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K74" s="5"/>
       <c r="L74" s="5"/>
@@ -6374,28 +6333,28 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K75" s="5"/>
       <c r="L75" s="5"/>
@@ -6412,28 +6371,28 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K76" s="5"/>
       <c r="L76" s="5"/>
@@ -6450,28 +6409,28 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K77" s="5"/>
       <c r="L77" s="5"/>
@@ -6488,28 +6447,28 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K78" s="5"/>
       <c r="L78" s="5"/>
@@ -6526,28 +6485,28 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K79" s="5"/>
       <c r="L79" s="5"/>
@@ -6564,28 +6523,28 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
@@ -6602,28 +6561,28 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K81" s="5"/>
       <c r="L81" s="5"/>
@@ -6640,28 +6599,28 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K82" s="5"/>
       <c r="L82" s="5"/>
@@ -6678,28 +6637,28 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
@@ -6716,28 +6675,28 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
@@ -6754,28 +6713,28 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C85" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G85" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="D85" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>492</v>
-      </c>
       <c r="H85" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
@@ -6792,28 +6751,28 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
@@ -6833,25 +6792,25 @@
         <v>13.2</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
@@ -6868,28 +6827,28 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
@@ -6906,28 +6865,28 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" spans="1:19" ht="72.5" x14ac:dyDescent="0.35">
@@ -6935,28 +6894,28 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
@@ -6964,28 +6923,28 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" spans="1:19" ht="29" x14ac:dyDescent="0.35">
@@ -6996,25 +6955,25 @@
         <v>13.3</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" spans="1:19" ht="101.5" x14ac:dyDescent="0.35">
@@ -7022,28 +6981,28 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" spans="1:19" ht="58" x14ac:dyDescent="0.35">
@@ -7051,28 +7010,28 @@
         <v>93</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="G94" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="H94" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="H94" s="5" t="s">
-        <v>541</v>
-      </c>
       <c r="I94" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="95" spans="1:19" ht="58" x14ac:dyDescent="0.35">
@@ -7080,28 +7039,28 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="F95" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="G95" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="D95" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>538</v>
-      </c>
       <c r="H95" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
@@ -7112,25 +7071,25 @@
         <v>13.4</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -7138,28 +7097,28 @@
         <v>96</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -7167,28 +7126,28 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.35">
@@ -7212,25 +7171,25 @@
         <v>14</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -7241,25 +7200,25 @@
         <v>14.1</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -7267,28 +7226,28 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E102" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="G102" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="F102" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>580</v>
-      </c>
       <c r="H102" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -7296,28 +7255,28 @@
         <v>102</v>
       </c>
       <c r="B103" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="C103" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="C103" s="5" t="s">
-        <v>553</v>
-      </c>
       <c r="D103" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E103" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="G103" s="5" t="s">
         <v>577</v>
       </c>
-      <c r="F103" s="5" t="s">
-        <v>581</v>
-      </c>
-      <c r="G103" s="5" t="s">
-        <v>580</v>
-      </c>
       <c r="H103" s="5" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -7325,28 +7284,28 @@
         <v>103</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="I104" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -7354,28 +7313,28 @@
         <v>104</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="I105" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -7383,28 +7342,28 @@
         <v>105</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="I106" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -7412,28 +7371,28 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -7441,28 +7400,28 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E108" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="G108" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="F108" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>609</v>
-      </c>
       <c r="H108" s="1" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -7470,28 +7429,28 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C109" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="F109" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="D109" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E109" s="1" t="s">
+      <c r="G109" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="H109" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="F109" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="H109" s="1" t="s">
-        <v>610</v>
-      </c>
       <c r="I109" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -7499,28 +7458,28 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
@@ -7528,28 +7487,28 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -7557,28 +7516,28 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -7586,28 +7545,28 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -7615,28 +7574,28 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -7644,28 +7603,28 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -7673,28 +7632,28 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -7702,28 +7661,28 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="F117" s="11" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -7731,28 +7690,28 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -7763,25 +7722,25 @@
         <v>14.2</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -7789,28 +7748,28 @@
         <v>119</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="H120" s="5" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="I120" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -7818,28 +7777,28 @@
         <v>120</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="G121" s="5" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="H121" s="5" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="I121" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -7847,28 +7806,28 @@
         <v>121</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="F122" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="G122" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="G122" s="5" t="s">
-        <v>658</v>
-      </c>
       <c r="H122" s="5" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="I122" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -7876,28 +7835,28 @@
         <v>122</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="F123" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="G123" s="5" t="s">
         <v>657</v>
       </c>
-      <c r="G123" s="5" t="s">
-        <v>660</v>
-      </c>
       <c r="H123" s="5" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="I123" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -7905,28 +7864,28 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -7934,28 +7893,28 @@
         <v>124</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E125" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="F125" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="G125" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="H125" s="5" t="s">
         <v>644</v>
       </c>
-      <c r="F125" s="5" t="s">
-        <v>645</v>
-      </c>
-      <c r="G125" s="5" t="s">
-        <v>646</v>
-      </c>
-      <c r="H125" s="5" t="s">
-        <v>647</v>
-      </c>
       <c r="I125" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -7963,28 +7922,28 @@
         <v>125</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="F126" s="12" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="G126" s="5" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="H126" s="5" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="I126" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -7995,25 +7954,25 @@
         <v>14.3</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
@@ -8021,28 +7980,28 @@
         <v>127</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="G128" s="5" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="H128" s="5" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="I128" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
@@ -8050,28 +8009,28 @@
         <v>128</v>
       </c>
       <c r="B129" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E129" s="5" t="s">
         <v>666</v>
       </c>
-      <c r="C129" s="5" t="s">
-        <v>667</v>
-      </c>
-      <c r="D129" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E129" s="5" t="s">
-        <v>669</v>
-      </c>
       <c r="F129" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="G129" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="H129" s="5" t="s">
         <v>674</v>
       </c>
-      <c r="G129" s="5" t="s">
-        <v>679</v>
-      </c>
-      <c r="H129" s="5" t="s">
-        <v>677</v>
-      </c>
       <c r="I129" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
@@ -8079,28 +8038,28 @@
         <v>129</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="G130" s="5" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="H130" s="5" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="I130" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -8111,25 +8070,25 @@
         <v>14.4</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -8137,28 +8096,28 @@
         <v>131</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="G132" s="5" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="H132" s="5" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="I132" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -8166,28 +8125,28 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E133" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="F133" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="F133" s="1" t="s">
-        <v>691</v>
-      </c>
       <c r="G133" s="1" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="87" x14ac:dyDescent="0.35">
@@ -8195,28 +8154,28 @@
         <v>133</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E134" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="F134" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="F134" s="5" t="s">
-        <v>692</v>
-      </c>
       <c r="G134" s="5" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="H134" s="5" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="I134" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -8224,28 +8183,28 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -8256,25 +8215,25 @@
         <v>14.5</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -8282,28 +8241,28 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="G137" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="C137" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>703</v>
-      </c>
-      <c r="F137" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="G137" s="1" t="s">
-        <v>704</v>
-      </c>
       <c r="H137" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -8311,28 +8270,28 @@
         <v>137</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E138" s="5" t="s">
+        <v>714</v>
+      </c>
+      <c r="F138" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="G138" s="5" t="s">
         <v>717</v>
       </c>
-      <c r="F138" s="5" t="s">
-        <v>719</v>
-      </c>
-      <c r="G138" s="5" t="s">
-        <v>720</v>
-      </c>
       <c r="H138" s="5" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="I138" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
@@ -8340,28 +8299,28 @@
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -8369,28 +8328,28 @@
         <v>139</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="G140" s="5" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="H140" s="5" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="I140" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -8398,28 +8357,28 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -8427,28 +8386,28 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -8456,28 +8415,28 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E143" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="C143" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>718</v>
-      </c>
       <c r="F143" s="1" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -8488,25 +8447,25 @@
         <v>14.6</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -8517,25 +8476,25 @@
         <v>14.7</v>
       </c>
       <c r="C145" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E145" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="D145" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>739</v>
-      </c>
       <c r="F145" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -8546,25 +8505,25 @@
         <v>14.8</v>
       </c>
       <c r="C146" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E146" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="D146" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>740</v>
-      </c>
       <c r="F146" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -8575,25 +8534,25 @@
         <v>14.9</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -8601,28 +8560,28 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
+        <v>743</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G148" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="C148" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>748</v>
-      </c>
-      <c r="F148" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G148" s="1" t="s">
-        <v>749</v>
-      </c>
       <c r="H148" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
@@ -8630,28 +8589,28 @@
         <v>148</v>
       </c>
       <c r="B149" s="15" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="F149" s="5" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="G149" s="5" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="H149" s="5" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="I149" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
@@ -8659,28 +8618,28 @@
         <v>149</v>
       </c>
       <c r="B150" s="15" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="G150" s="5" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="H150" s="5" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="I150" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="87" x14ac:dyDescent="0.35">
@@ -8688,28 +8647,28 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -8717,28 +8676,28 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -8746,28 +8705,28 @@
         <v>152</v>
       </c>
       <c r="B153" s="15" t="s">
+        <v>763</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="D153" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E153" s="5" t="s">
+        <v>764</v>
+      </c>
+      <c r="F153" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="G153" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="H153" s="5" t="s">
         <v>766</v>
       </c>
-      <c r="C153" s="5" t="s">
-        <v>765</v>
-      </c>
-      <c r="D153" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E153" s="5" t="s">
-        <v>767</v>
-      </c>
-      <c r="F153" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="G153" s="5" t="s">
-        <v>768</v>
-      </c>
-      <c r="H153" s="5" t="s">
-        <v>769</v>
-      </c>
       <c r="I153" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -8775,28 +8734,28 @@
         <v>153</v>
       </c>
       <c r="B154" s="15" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="G154" s="5" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="H154" s="5" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="I154" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -8804,28 +8763,28 @@
         <v>154</v>
       </c>
       <c r="B155" s="15" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="F155" s="5" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="G155" s="5" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="H155" s="5" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="I155" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -8833,28 +8792,28 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -8862,28 +8821,28 @@
         <v>156</v>
       </c>
       <c r="B157" s="15" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="G157" s="5" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="H157" s="5" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="I157" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -8891,28 +8850,28 @@
         <v>157</v>
       </c>
       <c r="B158" s="15" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="F158" s="5" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G158" s="5" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="H158" s="5" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="I158" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -8920,28 +8879,28 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I159" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -8949,28 +8908,28 @@
         <v>159</v>
       </c>
       <c r="B160" s="15" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E160" s="5" t="s">
+        <v>796</v>
+      </c>
+      <c r="F160" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="G160" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="H160" s="5" t="s">
         <v>799</v>
       </c>
-      <c r="F160" s="5" t="s">
-        <v>800</v>
-      </c>
-      <c r="G160" s="5" t="s">
-        <v>801</v>
-      </c>
-      <c r="H160" s="5" t="s">
-        <v>802</v>
-      </c>
       <c r="I160" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -8978,28 +8937,28 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I161" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -9007,28 +8966,28 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I162" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -9036,28 +8995,28 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -9065,28 +9024,28 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="F164" s="13" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -9094,28 +9053,28 @@
         <v>164</v>
       </c>
       <c r="B165" s="15" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="F165" s="5" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="G165" s="5" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="H165" s="5" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="I165" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -9123,28 +9082,28 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="F166" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="G166" s="1" t="s">
         <v>827</v>
       </c>
-      <c r="G166" s="1" t="s">
-        <v>830</v>
-      </c>
       <c r="H166" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -9155,25 +9114,25 @@
         <v>14.1</v>
       </c>
       <c r="C167" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="H167" s="1" t="s">
         <v>831</v>
       </c>
-      <c r="D167" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E167" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="F167" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G167" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="H167" s="1" t="s">
-        <v>834</v>
-      </c>
       <c r="I167" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -9181,28 +9140,28 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
+        <v>832</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="G168" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="C168" s="1" t="s">
-        <v>831</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>836</v>
-      </c>
-      <c r="F168" s="1" t="s">
-        <v>837</v>
-      </c>
-      <c r="G168" s="1" t="s">
-        <v>838</v>
-      </c>
       <c r="H168" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I168" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -9210,28 +9169,28 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
+        <v>836</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="F169" s="1" t="s">
         <v>839</v>
       </c>
-      <c r="C169" s="1" t="s">
+      <c r="G169" s="1" t="s">
         <v>840</v>
       </c>
-      <c r="D169" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>841</v>
-      </c>
-      <c r="F169" s="1" t="s">
-        <v>842</v>
-      </c>
-      <c r="G169" s="1" t="s">
-        <v>843</v>
-      </c>
       <c r="H169" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I169" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -9239,28 +9198,28 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="F170">
         <v>726456354</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I170" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -9268,28 +9227,28 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
+        <v>845</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="F171" s="1" t="s">
         <v>848</v>
       </c>
-      <c r="C171" s="1" t="s">
+      <c r="G171" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="D171" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="F171" s="1" t="s">
-        <v>851</v>
-      </c>
-      <c r="G171" s="1" t="s">
-        <v>852</v>
-      </c>
       <c r="H171" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -9297,28 +9256,28 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="C172" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E172" s="1" t="s">
         <v>854</v>
       </c>
-      <c r="D172" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>857</v>
-      </c>
       <c r="F172" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -9326,28 +9285,28 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
+        <v>852</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="G173" s="1" t="s">
         <v>855</v>
       </c>
-      <c r="C173" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>859</v>
-      </c>
-      <c r="F173" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="G173" s="1" t="s">
-        <v>858</v>
-      </c>
       <c r="H173" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I173" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.35">
@@ -9364,25 +9323,25 @@
         <v>15</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I175" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -9393,25 +9352,25 @@
         <v>15.1</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="H176" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I176" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="177" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -9419,28 +9378,28 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I177" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
@@ -9448,28 +9407,28 @@
         <v>177</v>
       </c>
       <c r="B178" s="15" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E178" s="5" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="F178" s="5" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="G178" s="5" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="H178" s="5" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="I178" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -9477,28 +9436,28 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="H179" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I179" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="180" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -9506,28 +9465,28 @@
         <v>179</v>
       </c>
       <c r="B180" s="15" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="D180" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E180" s="5" t="s">
+        <v>876</v>
+      </c>
+      <c r="F180" s="5" t="s">
+        <v>878</v>
+      </c>
+      <c r="G180" s="5" t="s">
         <v>879</v>
       </c>
-      <c r="F180" s="5" t="s">
-        <v>881</v>
-      </c>
-      <c r="G180" s="5" t="s">
-        <v>882</v>
-      </c>
       <c r="H180" s="5" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="I180" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="181" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -9535,28 +9494,28 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I181" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="182" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -9567,25 +9526,25 @@
         <v>15.2</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="H182" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I182" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="183" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -9593,28 +9552,28 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
+        <v>884</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E183" s="1" t="s">
         <v>887</v>
       </c>
-      <c r="C183" s="1" t="s">
+      <c r="F183" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="G183" s="1" t="s">
         <v>889</v>
       </c>
-      <c r="D183" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E183" s="1" t="s">
-        <v>890</v>
-      </c>
-      <c r="F183" s="1" t="s">
-        <v>891</v>
-      </c>
-      <c r="G183" s="1" t="s">
-        <v>892</v>
-      </c>
       <c r="H183" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I183" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="184" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -9625,25 +9584,25 @@
         <v>15.3</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="H184" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I184" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="185" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -9651,28 +9610,28 @@
         <v>184</v>
       </c>
       <c r="B185" s="15" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E185" s="5" t="s">
+        <v>918</v>
+      </c>
+      <c r="F185" s="5" t="s">
         <v>921</v>
       </c>
-      <c r="F185" s="5" t="s">
-        <v>924</v>
-      </c>
       <c r="G185" s="5" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="H185" s="5" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="I185" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="186" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -9680,28 +9639,28 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="H186" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I186" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="187" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -9712,25 +9671,25 @@
         <v>15.4</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="H187" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I187" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="188" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -9738,28 +9697,28 @@
         <v>187</v>
       </c>
       <c r="B188" s="15" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="D188" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E188" s="5" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="F188" s="5" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="G188" s="5" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="H188" s="5" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="I188" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="189" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -9767,28 +9726,28 @@
         <v>188</v>
       </c>
       <c r="B189" s="15" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="D189" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E189" s="5" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="F189" s="5" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="G189" s="5" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="H189" s="5" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="I189" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="190" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
@@ -9796,28 +9755,28 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="H190" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I190" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="191" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -9825,28 +9784,28 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="H191" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I191" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="192" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -9854,28 +9813,28 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E192" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G192" s="1" t="s">
         <v>935</v>
       </c>
-      <c r="F192" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G192" s="1" t="s">
-        <v>938</v>
-      </c>
       <c r="H192" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I192" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="193" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -9886,25 +9845,25 @@
         <v>15.5</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="H193" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I193" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="194" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -9912,28 +9871,28 @@
         <v>193</v>
       </c>
       <c r="B194" s="15" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E194" s="5" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="F194" s="5" t="s">
+        <v>908</v>
+      </c>
+      <c r="G194" s="5" t="s">
         <v>911</v>
       </c>
-      <c r="G194" s="5" t="s">
-        <v>914</v>
-      </c>
       <c r="H194" s="5" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="I194" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="195" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
@@ -9941,28 +9900,28 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I195" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="196" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -9970,28 +9929,28 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="H196" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I196" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -10003,11 +9962,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EDCECB0-E16F-49ED-AFFD-3DA6A7C6E840}">
   <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
@@ -10034,10 +9993,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -10045,10 +10004,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -10056,10 +10015,10 @@
         <v>2.1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -10067,10 +10026,10 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -10078,10 +10037,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -10089,10 +10048,10 @@
         <v>2.4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -10100,10 +10059,10 @@
         <v>2.5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -10111,10 +10070,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -10122,10 +10081,10 @@
         <v>3.1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -10133,10 +10092,10 @@
         <v>3.2</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -10144,10 +10103,10 @@
         <v>3.3</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -10155,10 +10114,10 @@
         <v>3.4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -10166,10 +10125,10 @@
         <v>3.5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -10177,10 +10136,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -10188,10 +10147,10 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -10199,10 +10158,10 @@
         <v>4.2</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -10210,10 +10169,10 @@
         <v>4.3</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -10221,10 +10180,10 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -10232,10 +10191,10 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -10243,10 +10202,10 @@
         <v>5.2</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -10254,10 +10213,10 @@
         <v>5.3</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -10265,10 +10224,10 @@
         <v>5.4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -10276,10 +10235,10 @@
         <v>5.5</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -10287,10 +10246,10 @@
         <v>6</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -10298,10 +10257,10 @@
         <v>7</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -10309,10 +10268,10 @@
         <v>7.1</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
@@ -10320,10 +10279,10 @@
         <v>7.2</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -10331,10 +10290,10 @@
         <v>7.3</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -10342,10 +10301,10 @@
         <v>8</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -10353,10 +10312,10 @@
         <v>8.1</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -10364,10 +10323,10 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
@@ -10375,10 +10334,10 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
@@ -10386,32 +10345,32 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -10419,10 +10378,10 @@
         <v>8.6</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C37" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -10430,10 +10389,10 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
@@ -10441,10 +10400,10 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -10452,26 +10411,26 @@
         <v>8.9</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C43" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -10479,10 +10438,10 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -10490,10 +10449,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B46" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -10501,10 +10460,10 @@
         <v>1.2</v>
       </c>
       <c r="B47" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
@@ -10512,10 +10471,10 @@
         <v>1.3</v>
       </c>
       <c r="B48" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
@@ -10523,21 +10482,21 @@
         <v>1.3</v>
       </c>
       <c r="B49" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C49" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="8" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B50" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C50" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -10545,10 +10504,10 @@
         <v>1.4</v>
       </c>
       <c r="B51" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -10556,10 +10515,10 @@
         <v>1.5</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
@@ -10567,10 +10526,10 @@
         <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
@@ -10578,10 +10537,10 @@
         <v>3</v>
       </c>
       <c r="B54" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
@@ -10589,10 +10548,10 @@
         <v>4</v>
       </c>
       <c r="B55" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C55" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
@@ -10600,15 +10559,15 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="B56" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C58" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
@@ -10616,10 +10575,10 @@
         <v>1</v>
       </c>
       <c r="B60" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C60" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
@@ -10627,10 +10586,10 @@
         <v>2</v>
       </c>
       <c r="B61" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
@@ -10638,10 +10597,10 @@
         <v>2.1</v>
       </c>
       <c r="B62" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
@@ -10649,10 +10608,10 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B63" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C63" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -10660,15 +10619,15 @@
         <v>3</v>
       </c>
       <c r="B64" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C66" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -10676,10 +10635,10 @@
         <v>1</v>
       </c>
       <c r="B68" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -10687,10 +10646,10 @@
         <v>2</v>
       </c>
       <c r="B69" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
@@ -10698,10 +10657,10 @@
         <v>3</v>
       </c>
       <c r="B70" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -10709,10 +10668,10 @@
         <v>1.3</v>
       </c>
       <c r="B71" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -10720,10 +10679,10 @@
         <v>4</v>
       </c>
       <c r="B72" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -10731,10 +10690,10 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="B73" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -10742,10 +10701,10 @@
         <v>4.2</v>
       </c>
       <c r="B74" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
@@ -10753,10 +10712,10 @@
         <v>4.3</v>
       </c>
       <c r="B75" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -10764,10 +10723,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="B76" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -10775,10 +10734,10 @@
         <v>4.5</v>
       </c>
       <c r="B77" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -10786,10 +10745,10 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="B78" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -10797,10 +10756,10 @@
         <v>5</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -10808,10 +10767,10 @@
         <v>6</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
   </sheetData>
